--- a/StructureDefinition-profile-DocumentReference.xlsx
+++ b/StructureDefinition-profile-DocumentReference.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="493">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.6751239-06:00</t>
+    <t>2026-02-09T22:05:43.0795859-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -440,33 +440,122 @@
     <t>DocumentReference.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>DocumentReference.extension:version</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.version|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DocumentReference.version from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An explicitly assigned identifer of a variation of the content in the DocumentReference.</t>
+  </si>
+  <si>
+    <t>Element `DocumentReference.version` is will have a context of DocumentReference based on following the parent source element upwards and mapping to `DocumentReference`.
+Element `DocumentReference.version` is will have a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>DocumentReference.extension:bodySite</t>
+  </si>
+  <si>
+    <t>bodySite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.bodySite|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DocumentReference.bodySite from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The anatomic structures included in the document.</t>
+  </si>
+  <si>
+    <t>Element `DocumentReference.bodySite` is will have a context of DocumentReference based on following the parent source element upwards and mapping to `DocumentReference`.
+Element `DocumentReference.bodySite` is mapped to FHIR R4 element `Media.bodySite`.</t>
+  </si>
+  <si>
+    <t>DocumentReference.extension:attester</t>
+  </si>
+  <si>
+    <t>attester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.attester|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DocumentReference.attester from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A participant who has authenticated the accuracy of the document.</t>
+  </si>
+  <si>
+    <t>Element `DocumentReference.attester` is will have a context of DocumentReference based on following the parent source element upwards and mapping to `DocumentReference`.
+Element `DocumentReference.attester` is will have a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
+  </si>
+  <si>
+    <t>DocumentReference.extension:basedOn</t>
+  </si>
+  <si>
+    <t>basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DocumentReference.basedOn from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Appointment,http://hl7.org/fhir/StructureDefinition/AppointmentResponse,http://hl7.org/fhir/StructureDefinition/Claim,http://hl7.org/fhir/StructureDefinition/CommunicationRequest,http://hl7.org/fhir/StructureDefinition/Contract,http://hl7.org/fhir/StructureDefinition/CoverageEligibilityRequest,http://hl7.org/fhir/StructureDefinition/DeviceRequest,http://hl7.org/fhir/StructureDefinition/EnrollmentRequest,http://hl7.org/fhir/StructureDefinition/ImmunizationRecommendation,http://hl7.org/fhir/StructureDefinition/MedicationRequest,http://hl7.org/fhir/StructureDefinition/NutritionOrder,http://hl7.org/fhir/StructureDefinition/RequestOrchestration,http://hl7.org/fhir/StructureDefinition/SupplyRequest,http://hl7.org/fhir/StructureDefinition/VisionPrescription in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DocumentReference.basedOn` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `DocumentReference.basedOn` is will have a context of DocumentReference based on following the parent source element upwards and mapping to `DocumentReference`.
+Element `DocumentReference.basedOn` is mapped to FHIR R4 element `Media.basedOn`.</t>
+  </si>
+  <si>
+    <t>DocumentReference.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>DocumentReference.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -474,6 +563,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -621,20 +713,13 @@
     <t>DocumentReference.docStatus.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>DocumentReference.docStatus.extension:docStatus</t>
+  </si>
+  <si>
+    <t>docStatus</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.docStatus|0.0.1-snapshot-3}
@@ -644,8 +729,8 @@
     <t>Cross-version extension for DocumentReference.docStatus from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
+    <t>Element `DocumentReference.docStatus` is mapped to FHIR R4 element `DocumentReference.docStatus`.
+Element `DocumentReference.docStatus` is will have a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
   </si>
   <si>
     <t>DocumentReference.docStatus.value</t>
@@ -934,6 +1019,12 @@
     <t>DocumentReference.relatesTo.extension</t>
   </si>
   <si>
+    <t>DocumentReference.relatesTo.extension:relatesTo</t>
+  </si>
+  <si>
+    <t>relatesTo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.relatesTo|0.0.1-snapshot-3}
 </t>
   </si>
@@ -941,6 +1032,10 @@
     <t>Cross-version extension for DocumentReference.relatesTo from R5 for use in FHIR R4</t>
   </si>
   <si>
+    <t>Element `DocumentReference.relatesTo` is mapped to FHIR R4 element `DocumentReference.relatesTo`.
+Element `DocumentReference.relatesTo` is will have a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
+  </si>
+  <si>
     <t>DocumentReference.relatesTo.modifierExtension</t>
   </si>
   <si>
@@ -1092,7 +1187,24 @@
     <t>DocumentReference.content.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>DocumentReference.content.extension:profile</t>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.content.profile|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DocumentReference.content.profile from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An identifier of the document constraints, encoding, structure, and template that the document conforms to beyond the base format indicated in the mimeType.</t>
+  </si>
+  <si>
+    <t>Element `DocumentReference.content.profile` is will have a context of DocumentReference.content based on following the parent source element upwards and mapping to `DocumentReference`.
+Element `DocumentReference.content.profile` is will have a context of Media.content based on following the parent source element upwards and mapping to `Media`.</t>
   </si>
   <si>
     <t>DocumentReference.content.modifierExtension</t>
@@ -1177,14 +1289,21 @@
     <t>DocumentReference.context.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.context|0.0.1-snapshot-3}
-</t>
+    <t>DocumentReference.context.extension:context</t>
+  </si>
+  <si>
+    <t>context</t>
   </si>
   <si>
     <t>Cross-version extension for DocumentReference.context from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Describes the clinical encounter or type of care that the document content is associated with.</t>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Appointment,http://hl7.org/fhir/StructureDefinition/Encounter,http://hl7.org/fhir/StructureDefinition/EpisodeOfCare in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DocumentReference.context` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `DocumentReference.context` is mapped to FHIR R4 element `DocumentReference.context`.
+Element `DocumentReference.context` is will have a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
   </si>
   <si>
     <t>DocumentReference.context.modifierExtension</t>
@@ -1200,6 +1319,9 @@
     <t>Context of the document  content</t>
   </si>
   <si>
+    <t>Describes the clinical encounter or type of care that the document content is associated with.</t>
+  </si>
+  <si>
     <t>Event.context</t>
   </si>
   <si>
@@ -1246,6 +1368,12 @@
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.event.extension:event</t>
+  </si>
+  <si>
+    <t>event</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.event|0.0.1-snapshot-3}
@@ -1253,6 +1381,10 @@
   </si>
   <si>
     <t>Cross-version extension for DocumentReference.event from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `DocumentReference.event` is mapped to FHIR R4 element `DocumentReference.context.event`.
+Element `DocumentReference.event` is will have a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
   </si>
   <si>
     <t>DocumentReference.context.event.coding</t>
@@ -1731,7 +1863,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ57"/>
+  <dimension ref="A1:AQ62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1740,7 +1872,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.59765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="40.578125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -2783,7 +2915,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2802,17 +2934,15 @@
         <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>142</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>80</v>
@@ -2849,16 +2979,14 @@
         <v>80</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>143</v>
@@ -2882,7 +3010,7 @@
         <v>80</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>80</v>
@@ -2902,43 +3030,43 @@
         <v>145</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>80</v>
       </c>
@@ -2986,7 +3114,7 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>81</v>
@@ -2995,7 +3123,7 @@
         <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>144</v>
@@ -3007,7 +3135,7 @@
         <v>80</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>80</v>
@@ -3024,12 +3152,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>80</v>
       </c>
@@ -3038,7 +3168,7 @@
         <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>80</v>
@@ -3047,23 +3177,21 @@
         <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>80</v>
       </c>
@@ -3111,50 +3239,52 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="AQ11" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>80</v>
       </c>
@@ -3172,18 +3302,20 @@
         <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>80</v>
@@ -3232,7 +3364,7 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
@@ -3241,71 +3373,73 @@
         <v>82</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="AQ12" t="s" s="2">
-        <v>168</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3331,13 +3465,13 @@
         <v>80</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>80</v>
@@ -3355,82 +3489,84 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="AQ13" t="s" s="2">
-        <v>180</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="O14" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>80</v>
       </c>
@@ -3454,13 +3590,13 @@
         <v>80</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>80</v>
@@ -3478,37 +3614,37 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>188</v>
+        <v>136</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="AQ14" t="s" s="2">
         <v>80</v>
@@ -3516,10 +3652,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3539,19 +3675,23 @@
         <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>80</v>
       </c>
@@ -3599,7 +3739,7 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
@@ -3611,36 +3751,36 @@
         <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>80</v>
+        <v>187</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="AQ15" t="s" s="2">
-        <v>80</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3648,7 +3788,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>82</v>
@@ -3660,16 +3800,16 @@
         <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3708,17 +3848,19 @@
         <v>80</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AC16" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
@@ -3730,36 +3872,36 @@
         <v>80</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>80</v>
+        <v>187</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>80</v>
+        <v>194</v>
       </c>
       <c r="AQ16" t="s" s="2">
-        <v>80</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3767,7 +3909,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>93</v>
@@ -3776,22 +3918,22 @@
         <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>201</v>
+        <v>113</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3817,13 +3959,13 @@
         <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>80</v>
@@ -3841,48 +3983,48 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AJ17" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AL17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>80</v>
+        <v>204</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>80</v>
+        <v>206</v>
       </c>
       <c r="AQ17" t="s" s="2">
-        <v>80</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3902,18 +4044,20 @@
         <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>191</v>
+        <v>113</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>80</v>
@@ -3938,13 +4082,13 @@
         <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>80</v>
@@ -3962,7 +4106,7 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -3974,25 +4118,25 @@
         <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>80</v>
+        <v>214</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="AQ18" t="s" s="2">
         <v>80</v>
@@ -4000,10 +4144,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4023,20 +4167,18 @@
         <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -4061,13 +4203,13 @@
         <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>80</v>
@@ -4085,7 +4227,7 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4097,40 +4239,40 @@
         <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>214</v>
+        <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>215</v>
+        <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>219</v>
+        <v>80</v>
       </c>
       <c r="AQ19" t="s" s="2">
-        <v>220</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>222</v>
+        <v>80</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4146,20 +4288,18 @@
         <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>223</v>
+        <v>139</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>80</v>
@@ -4184,31 +4324,29 @@
         <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>226</v>
+        <v>80</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>227</v>
+        <v>80</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="AC20" s="2"/>
       <c r="AD20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4220,38 +4358,40 @@
         <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>231</v>
+        <v>80</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ20" t="s" s="2">
-        <v>232</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="D21" t="s" s="2">
         <v>80</v>
       </c>
@@ -4269,18 +4409,20 @@
         <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>80</v>
@@ -4329,52 +4471,52 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>237</v>
+        <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>242</v>
+        <v>80</v>
       </c>
       <c r="AQ21" t="s" s="2">
-        <v>243</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>245</v>
+        <v>80</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4390,20 +4532,18 @@
         <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>80</v>
@@ -4452,7 +4592,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4464,22 +4604,22 @@
         <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>251</v>
+        <v>80</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>252</v>
+        <v>80</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>253</v>
+        <v>80</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>80</v>
@@ -4490,10 +4630,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4504,7 +4644,7 @@
         <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>80</v>
@@ -4516,16 +4656,16 @@
         <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4551,13 +4691,13 @@
         <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>80</v>
+        <v>238</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>80</v>
@@ -4575,13 +4715,13 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>80</v>
@@ -4590,44 +4730,44 @@
         <v>105</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>80</v>
+        <v>243</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="AQ23" t="s" s="2">
-        <v>264</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
@@ -4636,19 +4776,19 @@
         <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4674,13 +4814,13 @@
         <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>80</v>
+        <v>252</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>80</v>
+        <v>253</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>80</v>
@@ -4698,13 +4838,13 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>80</v>
@@ -4713,33 +4853,33 @@
         <v>105</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>259</v>
+        <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="AQ24" t="s" s="2">
-        <v>275</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4759,20 +4899,18 @@
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -4821,7 +4959,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -4836,44 +4974,44 @@
         <v>105</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>80</v>
+        <v>266</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>80</v>
+        <v>267</v>
       </c>
       <c r="AQ25" t="s" s="2">
-        <v>80</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>80</v>
+        <v>270</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
@@ -4885,16 +5023,16 @@
         <v>94</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4944,13 +5082,13 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>80</v>
@@ -4959,33 +5097,33 @@
         <v>105</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>80</v>
+        <v>275</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>80</v>
+        <v>278</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ26" t="s" s="2">
-        <v>290</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4996,7 +5134,7 @@
         <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
@@ -5005,18 +5143,20 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>191</v>
+        <v>280</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>80</v>
@@ -5065,48 +5205,48 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>194</v>
+        <v>279</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>80</v>
+        <v>284</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>80</v>
+        <v>285</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>80</v>
+        <v>287</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>80</v>
+        <v>288</v>
       </c>
       <c r="AQ27" t="s" s="2">
-        <v>80</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5114,11 +5254,11 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G28" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
       </c>
@@ -5129,15 +5269,17 @@
         <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>139</v>
+        <v>291</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>196</v>
+        <v>292</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>80</v>
@@ -5174,58 +5316,60 @@
         <v>80</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AC28" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>80</v>
+        <v>284</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>80</v>
+        <v>295</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>80</v>
+        <v>296</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>80</v>
+        <v>297</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>80</v>
+        <v>298</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>80</v>
+        <v>299</v>
       </c>
       <c r="AQ28" t="s" s="2">
-        <v>80</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5236,7 +5380,7 @@
         <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
@@ -5248,16 +5392,16 @@
         <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5307,28 +5451,28 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>200</v>
+        <v>301</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>80</v>
+        <v>284</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>80</v>
+        <v>307</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
@@ -5345,14 +5489,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>299</v>
+        <v>80</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5365,26 +5509,24 @@
         <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>139</v>
+        <v>309</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5432,7 +5574,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -5444,16 +5586,16 @@
         <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>80</v>
+        <v>313</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>136</v>
+        <v>314</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -5465,15 +5607,15 @@
         <v>80</v>
       </c>
       <c r="AQ30" t="s" s="2">
-        <v>80</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5481,7 +5623,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>93</v>
@@ -5493,20 +5635,18 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>113</v>
+        <v>218</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -5531,13 +5671,13 @@
         <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>307</v>
+        <v>80</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>80</v>
@@ -5555,10 +5695,10 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>303</v>
+        <v>221</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>93</v>
@@ -5567,16 +5707,16 @@
         <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>309</v>
+        <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -5588,15 +5728,15 @@
         <v>80</v>
       </c>
       <c r="AQ31" t="s" s="2">
-        <v>311</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5604,10 +5744,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>80</v>
@@ -5616,16 +5756,16 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>313</v>
+        <v>138</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>314</v>
+        <v>139</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>315</v>
+        <v>140</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5664,40 +5804,38 @@
         <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>312</v>
+        <v>223</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>316</v>
+        <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>317</v>
+        <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -5709,17 +5847,19 @@
         <v>80</v>
       </c>
       <c r="AQ32" t="s" s="2">
-        <v>318</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="D33" t="s" s="2">
         <v>80</v>
       </c>
@@ -5728,7 +5868,7 @@
         <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -5737,23 +5877,21 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>191</v>
+        <v>323</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
       </c>
@@ -5801,19 +5939,19 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
@@ -5822,7 +5960,7 @@
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>324</v>
+        <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -5831,22 +5969,22 @@
         <v>80</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>325</v>
+        <v>80</v>
       </c>
       <c r="AQ33" t="s" s="2">
-        <v>326</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>80</v>
+        <v>327</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5859,13 +5997,13 @@
         <v>80</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>328</v>
@@ -5874,10 +6012,10 @@
         <v>329</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>330</v>
+        <v>174</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>331</v>
+        <v>175</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -5902,13 +6040,13 @@
         <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>332</v>
+        <v>80</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>333</v>
+        <v>80</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>334</v>
+        <v>80</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>80</v>
@@ -5926,7 +6064,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -5938,36 +6076,36 @@
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>335</v>
+        <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>336</v>
+        <v>136</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>337</v>
+        <v>80</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>338</v>
+        <v>80</v>
       </c>
       <c r="AQ34" t="s" s="2">
-        <v>339</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5978,7 +6116,7 @@
         <v>93</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>80</v>
@@ -5990,15 +6128,17 @@
         <v>94</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>284</v>
+        <v>113</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -6023,13 +6163,13 @@
         <v>80</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>80</v>
+        <v>335</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>80</v>
+        <v>336</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>80</v>
@@ -6047,13 +6187,13 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>80</v>
@@ -6065,10 +6205,10 @@
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6080,15 +6220,15 @@
         <v>80</v>
       </c>
       <c r="AQ35" t="s" s="2">
-        <v>80</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6096,7 +6236,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>93</v>
@@ -6108,16 +6248,16 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>191</v>
+        <v>341</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>292</v>
+        <v>342</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>293</v>
+        <v>343</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6168,10 +6308,10 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>194</v>
+        <v>340</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>93</v>
@@ -6180,16 +6320,16 @@
         <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>80</v>
+        <v>344</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>294</v>
+        <v>345</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -6201,26 +6341,26 @@
         <v>80</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>80</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
@@ -6229,21 +6369,23 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>139</v>
+        <v>218</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>140</v>
+        <v>348</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6291,19 +6433,19 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>200</v>
+        <v>347</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
@@ -6312,7 +6454,7 @@
         <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>294</v>
+        <v>352</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
@@ -6321,22 +6463,22 @@
         <v>80</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>80</v>
+        <v>353</v>
       </c>
       <c r="AQ37" t="s" s="2">
-        <v>80</v>
+        <v>354</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>299</v>
+        <v>80</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6349,25 +6491,25 @@
         <v>80</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>139</v>
+        <v>233</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>300</v>
+        <v>356</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>301</v>
+        <v>357</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>142</v>
+        <v>358</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>148</v>
+        <v>359</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6392,13 +6534,13 @@
         <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>80</v>
+        <v>361</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>80</v>
+        <v>362</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>80</v>
@@ -6416,7 +6558,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>302</v>
+        <v>355</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6428,36 +6570,36 @@
         <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>80</v>
+        <v>363</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>136</v>
+        <v>364</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>80</v>
+        <v>365</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
       <c r="AQ38" t="s" s="2">
-        <v>80</v>
+        <v>367</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6468,7 +6610,7 @@
         <v>93</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -6480,13 +6622,13 @@
         <v>94</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6537,13 +6679,13 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>80</v>
@@ -6555,30 +6697,30 @@
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>354</v>
+        <v>80</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="AQ39" t="s" s="2">
-        <v>356</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6598,20 +6740,18 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>358</v>
+        <v>218</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>359</v>
+        <v>317</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6636,13 +6776,13 @@
         <v>80</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>362</v>
+        <v>80</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>363</v>
+        <v>80</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>80</v>
@@ -6660,7 +6800,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>357</v>
+        <v>221</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6672,19 +6812,19 @@
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>364</v>
+        <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>365</v>
+        <v>80</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>80</v>
@@ -6693,15 +6833,15 @@
         <v>80</v>
       </c>
       <c r="AQ40" t="s" s="2">
-        <v>366</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6712,7 +6852,7 @@
         <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
@@ -6721,20 +6861,18 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>284</v>
+        <v>138</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>368</v>
+        <v>139</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -6771,31 +6909,29 @@
         <v>80</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="AC41" s="2"/>
       <c r="AD41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>367</v>
+        <v>223</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
@@ -6804,7 +6940,7 @@
         <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>371</v>
+        <v>80</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
@@ -6821,12 +6957,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="D42" t="s" s="2">
         <v>80</v>
       </c>
@@ -6835,7 +6973,7 @@
         <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
@@ -6847,15 +6985,17 @@
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>191</v>
+        <v>377</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>292</v>
+        <v>378</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>80</v>
@@ -6904,19 +7044,19 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
@@ -6925,7 +7065,7 @@
         <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -6942,18 +7082,18 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>80</v>
+        <v>327</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>82</v>
@@ -6962,22 +7102,26 @@
         <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>196</v>
+        <v>328</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>80</v>
       </c>
@@ -7013,17 +7157,19 @@
         <v>80</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AC43" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7044,7 +7190,7 @@
         <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -7061,10 +7207,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7072,10 +7218,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
@@ -7084,16 +7230,16 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7144,84 +7290,82 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>200</v>
+        <v>382</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>80</v>
+        <v>386</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>80</v>
+        <v>372</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>80</v>
+        <v>387</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="AQ44" t="s" s="2">
-        <v>80</v>
+        <v>389</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>299</v>
+        <v>80</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>139</v>
+        <v>391</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>300</v>
+        <v>392</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>301</v>
+        <v>393</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7245,13 +7389,13 @@
         <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>80</v>
+        <v>395</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
@@ -7269,31 +7413,31 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>302</v>
+        <v>390</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>80</v>
+        <v>397</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>136</v>
+        <v>372</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>80</v>
+        <v>398</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>80</v>
@@ -7302,15 +7446,15 @@
         <v>80</v>
       </c>
       <c r="AQ45" t="s" s="2">
-        <v>80</v>
+        <v>399</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7321,7 +7465,7 @@
         <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
@@ -7330,18 +7474,20 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>379</v>
+        <v>309</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>380</v>
+        <v>401</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7390,13 +7536,13 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>80</v>
@@ -7405,19 +7551,19 @@
         <v>105</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>381</v>
+        <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>382</v>
+        <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>384</v>
+        <v>80</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>80</v>
@@ -7428,10 +7574,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7442,7 +7588,7 @@
         <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>80</v>
@@ -7454,17 +7600,15 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>386</v>
+        <v>317</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7489,13 +7633,13 @@
         <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>226</v>
+        <v>80</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>389</v>
+        <v>80</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>390</v>
+        <v>80</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>80</v>
@@ -7513,28 +7657,28 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>385</v>
+        <v>221</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>391</v>
+        <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>392</v>
+        <v>319</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7546,15 +7690,15 @@
         <v>80</v>
       </c>
       <c r="AQ47" t="s" s="2">
-        <v>393</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7565,7 +7709,7 @@
         <v>81</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
@@ -7577,13 +7721,13 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>191</v>
+        <v>138</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>292</v>
+        <v>139</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>293</v>
+        <v>140</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7622,31 +7766,29 @@
         <v>80</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="AC48" s="2"/>
       <c r="AD48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>80</v>
@@ -7655,7 +7797,7 @@
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
@@ -7672,18 +7814,20 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="D49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>82</v>
@@ -7698,15 +7842,17 @@
         <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>196</v>
+        <v>409</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -7743,19 +7889,19 @@
         <v>80</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>198</v>
+        <v>80</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>396</v>
+        <v>80</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -7793,14 +7939,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>80</v>
+        <v>327</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7813,24 +7959,26 @@
         <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>397</v>
+        <v>138</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>398</v>
+        <v>328</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>387</v>
+        <v>329</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
       </c>
@@ -7878,7 +8026,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -7899,7 +8047,7 @@
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
@@ -7916,10 +8064,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7939,23 +8087,19 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>358</v>
+        <v>414</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>80</v>
       </c>
@@ -8003,7 +8147,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8018,22 +8162,22 @@
         <v>105</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>80</v>
+        <v>417</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>80</v>
+        <v>418</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>80</v>
+        <v>420</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>406</v>
+        <v>80</v>
       </c>
       <c r="AQ51" t="s" s="2">
         <v>80</v>
@@ -8041,10 +8185,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8055,7 +8199,7 @@
         <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -8064,23 +8208,21 @@
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>80</v>
       </c>
@@ -8104,13 +8246,13 @@
         <v>80</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>80</v>
+        <v>425</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>80</v>
+        <v>426</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>80</v>
@@ -8128,13 +8270,13 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>80</v>
@@ -8146,10 +8288,10 @@
         <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>80</v>
+        <v>427</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>80</v>
@@ -8158,18 +8300,18 @@
         <v>80</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>414</v>
+        <v>80</v>
       </c>
       <c r="AQ52" t="s" s="2">
-        <v>80</v>
+        <v>429</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8189,16 +8331,16 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>416</v>
+        <v>218</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8249,7 +8391,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>415</v>
+        <v>221</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8261,19 +8403,19 @@
         <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>419</v>
+        <v>80</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>420</v>
+        <v>319</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>421</v>
+        <v>80</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>80</v>
@@ -8282,15 +8424,15 @@
         <v>80</v>
       </c>
       <c r="AQ53" t="s" s="2">
-        <v>422</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8301,7 +8443,7 @@
         <v>81</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>80</v>
@@ -8313,13 +8455,13 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>424</v>
+        <v>139</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>425</v>
+        <v>140</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8346,55 +8488,55 @@
         <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>226</v>
+        <v>80</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>426</v>
+        <v>80</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>427</v>
+        <v>80</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>80</v>
+        <v>432</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>423</v>
+        <v>223</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>428</v>
+        <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>429</v>
+        <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>430</v>
+        <v>80</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>80</v>
@@ -8403,17 +8545,19 @@
         <v>80</v>
       </c>
       <c r="AQ54" t="s" s="2">
-        <v>431</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="D55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8422,7 +8566,7 @@
         <v>81</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
@@ -8434,20 +8578,18 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>208</v>
+        <v>435</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8471,13 +8613,13 @@
         <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>226</v>
+        <v>80</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>437</v>
+        <v>80</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>438</v>
+        <v>80</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>80</v>
@@ -8495,31 +8637,31 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>432</v>
+        <v>223</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>428</v>
+        <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>429</v>
+        <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>428</v>
+        <v>80</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>80</v>
@@ -8528,15 +8670,15 @@
         <v>80</v>
       </c>
       <c r="AQ55" t="s" s="2">
-        <v>439</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8547,7 +8689,7 @@
         <v>81</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>80</v>
@@ -8556,19 +8698,23 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="N56" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="O56" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="M56" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8616,13 +8762,13 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>80</v>
@@ -8634,30 +8780,30 @@
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>239</v>
+        <v>444</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>80</v>
+        <v>445</v>
       </c>
       <c r="AQ56" t="s" s="2">
-        <v>444</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8668,7 +8814,7 @@
         <v>81</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
@@ -8677,10 +8823,10 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>446</v>
+        <v>218</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>447</v>
@@ -8691,7 +8837,9 @@
       <c r="N57" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="O57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
       </c>
@@ -8739,13 +8887,13 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>80</v>
@@ -8757,22 +8905,633 @@
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>452</v>
+        <v>80</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>80</v>
+        <v>453</v>
       </c>
       <c r="AQ57" t="s" s="2">
-        <v>453</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ58" t="s" s="2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ59" t="s" s="2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ60" t="s" s="2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ61" t="s" s="2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="O62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ62" t="s" s="2">
+        <v>492</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-profile-DocumentReference.xlsx
+++ b/StructureDefinition-profile-DocumentReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.0795859-06:00</t>
+    <t>2026-02-17T14:42:26.7929847-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -480,8 +480,8 @@
     <t>An explicitly assigned identifer of a variation of the content in the DocumentReference.</t>
   </si>
   <si>
-    <t>Element `DocumentReference.version` is will have a context of DocumentReference based on following the parent source element upwards and mapping to `DocumentReference`.
-Element `DocumentReference.version` is will have a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
+    <t>Element `DocumentReference.version` has a context of DocumentReference based on following the parent source element upwards and mapping to `DocumentReference`.
+Element `DocumentReference.version` has a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -504,8 +504,8 @@
     <t>The anatomic structures included in the document.</t>
   </si>
   <si>
-    <t>Element `DocumentReference.bodySite` is will have a context of DocumentReference based on following the parent source element upwards and mapping to `DocumentReference`.
-Element `DocumentReference.bodySite` is mapped to FHIR R4 element `Media.bodySite`.</t>
+    <t>Element `DocumentReference.bodySite` has a context of DocumentReference based on following the parent source element upwards and mapping to `DocumentReference`.
+Element `DocumentReference.bodySite` has is mapped to FHIR R4 element `Media.bodySite`, but has no comparisons.</t>
   </si>
   <si>
     <t>DocumentReference.extension:attester</t>
@@ -524,8 +524,8 @@
     <t>A participant who has authenticated the accuracy of the document.</t>
   </si>
   <si>
-    <t>Element `DocumentReference.attester` is will have a context of DocumentReference based on following the parent source element upwards and mapping to `DocumentReference`.
-Element `DocumentReference.attester` is will have a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
+    <t>Element `DocumentReference.attester` has a context of DocumentReference based on following the parent source element upwards and mapping to `DocumentReference`.
+Element `DocumentReference.attester` has a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
   </si>
   <si>
     <t>DocumentReference.extension:basedOn</t>
@@ -545,8 +545,8 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DocumentReference.basedOn` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `DocumentReference.basedOn` is will have a context of DocumentReference based on following the parent source element upwards and mapping to `DocumentReference`.
-Element `DocumentReference.basedOn` is mapped to FHIR R4 element `Media.basedOn`.</t>
+Element `DocumentReference.basedOn` has a context of DocumentReference based on following the parent source element upwards and mapping to `DocumentReference`.
+Element `DocumentReference.basedOn` has is mapped to FHIR R4 element `Media.basedOn`, but has no comparisons.</t>
   </si>
   <si>
     <t>DocumentReference.modifierExtension</t>
@@ -729,8 +729,8 @@
     <t>Cross-version extension for DocumentReference.docStatus from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `DocumentReference.docStatus` is mapped to FHIR R4 element `DocumentReference.docStatus`.
-Element `DocumentReference.docStatus` is will have a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
+    <t>Element `DocumentReference.docStatus` has is mapped to FHIR R4 element `DocumentReference.docStatus`, but has no comparisons.
+Element `DocumentReference.docStatus` has a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
   </si>
   <si>
     <t>DocumentReference.docStatus.value</t>
@@ -1032,8 +1032,8 @@
     <t>Cross-version extension for DocumentReference.relatesTo from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `DocumentReference.relatesTo` is mapped to FHIR R4 element `DocumentReference.relatesTo`.
-Element `DocumentReference.relatesTo` is will have a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
+    <t>Element `DocumentReference.relatesTo` has is mapped to FHIR R4 element `DocumentReference.relatesTo`, but has no comparisons.
+Element `DocumentReference.relatesTo` has a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
   </si>
   <si>
     <t>DocumentReference.relatesTo.modifierExtension</t>
@@ -1187,24 +1187,24 @@
     <t>DocumentReference.content.extension</t>
   </si>
   <si>
-    <t>DocumentReference.content.extension:profile</t>
-  </si>
-  <si>
-    <t>profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.content.profile|0.0.1-snapshot-3}
+    <t>DocumentReference.content.extension:content</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.content|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for DocumentReference.content.profile from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>An identifier of the document constraints, encoding, structure, and template that the document conforms to beyond the base format indicated in the mimeType.</t>
-  </si>
-  <si>
-    <t>Element `DocumentReference.content.profile` is will have a context of DocumentReference.content based on following the parent source element upwards and mapping to `DocumentReference`.
-Element `DocumentReference.content.profile` is will have a context of Media.content based on following the parent source element upwards and mapping to `Media`.</t>
+    <t>Cross-version extension for DocumentReference.content from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The document and format referenced.  If there are multiple content element repetitions, these must all represent the same document in different format, or attachment metadata.</t>
+  </si>
+  <si>
+    <t>Element `DocumentReference.content` has is mapped to FHIR R4 element `DocumentReference.content`, but has no comparisons.
+Element `DocumentReference.content` has is mapped to FHIR R4 element `Media.content`, but has no comparisons.</t>
   </si>
   <si>
     <t>DocumentReference.content.modifierExtension</t>
@@ -1302,8 +1302,8 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DocumentReference.context` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `DocumentReference.context` is mapped to FHIR R4 element `DocumentReference.context`.
-Element `DocumentReference.context` is will have a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
+Element `DocumentReference.context` has is mapped to FHIR R4 element `DocumentReference.context`, but has no comparisons.
+Element `DocumentReference.context` has a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
   </si>
   <si>
     <t>DocumentReference.context.modifierExtension</t>
@@ -1383,8 +1383,8 @@
     <t>Cross-version extension for DocumentReference.event from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `DocumentReference.event` is mapped to FHIR R4 element `DocumentReference.context.event`.
-Element `DocumentReference.event` is will have a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
+    <t>Element `DocumentReference.event` has is mapped to FHIR R4 element `DocumentReference.context.event`, but has no comparisons.
+Element `DocumentReference.event` has a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
   </si>
   <si>
     <t>DocumentReference.context.event.coding</t>
@@ -6849,7 +6849,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>82</v>
@@ -6970,7 +6970,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>82</v>

--- a/StructureDefinition-profile-DocumentReference.xlsx
+++ b/StructureDefinition-profile-DocumentReference.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2916" uniqueCount="524">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.7929847-06:00</t>
+    <t>2026-02-20T11:59:20.7894384-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/DocumentReference|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/DocumentReference</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -470,7 +470,7 @@
     <t>version</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.version|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.version}
 </t>
   </si>
   <si>
@@ -488,33 +488,13 @@
 </t>
   </si>
   <si>
-    <t>DocumentReference.extension:bodySite</t>
-  </si>
-  <si>
-    <t>bodySite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.bodySite|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for DocumentReference.bodySite from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The anatomic structures included in the document.</t>
-  </si>
-  <si>
-    <t>Element `DocumentReference.bodySite` has a context of DocumentReference based on following the parent source element upwards and mapping to `DocumentReference`.
-Element `DocumentReference.bodySite` has is mapped to FHIR R4 element `Media.bodySite`, but has no comparisons.</t>
-  </si>
-  <si>
     <t>DocumentReference.extension:attester</t>
   </si>
   <si>
     <t>attester</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.attester|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.attester}
 </t>
   </si>
   <si>
@@ -528,27 +508,6 @@
 Element `DocumentReference.attester` has a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
   </si>
   <si>
-    <t>DocumentReference.extension:basedOn</t>
-  </si>
-  <si>
-    <t>basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for DocumentReference.basedOn from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Appointment,http://hl7.org/fhir/StructureDefinition/AppointmentResponse,http://hl7.org/fhir/StructureDefinition/Claim,http://hl7.org/fhir/StructureDefinition/CommunicationRequest,http://hl7.org/fhir/StructureDefinition/Contract,http://hl7.org/fhir/StructureDefinition/CoverageEligibilityRequest,http://hl7.org/fhir/StructureDefinition/DeviceRequest,http://hl7.org/fhir/StructureDefinition/EnrollmentRequest,http://hl7.org/fhir/StructureDefinition/ImmunizationRecommendation,http://hl7.org/fhir/StructureDefinition/MedicationRequest,http://hl7.org/fhir/StructureDefinition/NutritionOrder,http://hl7.org/fhir/StructureDefinition/RequestOrchestration,http://hl7.org/fhir/StructureDefinition/SupplyRequest,http://hl7.org/fhir/StructureDefinition/VisionPrescription in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DocumentReference.basedOn` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `DocumentReference.basedOn` has a context of DocumentReference based on following the parent source element upwards and mapping to `DocumentReference`.
-Element `DocumentReference.basedOn` has is mapped to FHIR R4 element `Media.basedOn`, but has no comparisons.</t>
-  </si>
-  <si>
     <t>DocumentReference.modifierExtension</t>
   </si>
   <si>
@@ -722,15 +681,14 @@
     <t>docStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.docStatus|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.docStatus}
 </t>
   </si>
   <si>
     <t>Cross-version extension for DocumentReference.docStatus from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `DocumentReference.docStatus` has is mapped to FHIR R4 element `DocumentReference.docStatus`, but has no comparisons.
-Element `DocumentReference.docStatus` has a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
+    <t>Element `DocumentReference.docStatus` has is mapped to FHIR R4 element `DocumentReference.docStatus`, but has no comparisons.</t>
   </si>
   <si>
     <t>DocumentReference.docStatus.value</t>
@@ -857,6 +815,125 @@
     <t>DocumentEntry.patientId</t>
   </si>
   <si>
+    <t>DocumentReference.subject.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>DocumentReference.subject.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>DocumentReference.subject.extension:subject</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DocumentReference.subject from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Resource in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DocumentReference.subject` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `DocumentReference.subject` has is mapped to FHIR R4 element `DocumentReference.subject`, but has no comparisons.
+Element `DocumentReference.subject` has is mapped to FHIR R4 element `Media.subject`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t>DocumentReference.subject.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>DocumentReference.subject.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>DocumentReference.subject.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>DocumentReference.subject.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
     <t>DocumentReference.date</t>
   </si>
   <si>
@@ -923,6 +1000,40 @@
     <t>DocumentEntry.author</t>
   </si>
   <si>
+    <t>DocumentReference.author.id</t>
+  </si>
+  <si>
+    <t>DocumentReference.author.extension</t>
+  </si>
+  <si>
+    <t>DocumentReference.author.extension:author</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DocumentReference.author from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CareTeam in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DocumentReference.author` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `DocumentReference.author` has is mapped to FHIR R4 element `DocumentReference.author`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t>DocumentReference.author.reference</t>
+  </si>
+  <si>
+    <t>DocumentReference.author.type</t>
+  </si>
+  <si>
+    <t>DocumentReference.author.identifier</t>
+  </si>
+  <si>
+    <t>DocumentReference.author.display</t>
+  </si>
+  <si>
     <t>DocumentReference.authenticator</t>
   </si>
   <si>
@@ -1007,15 +1118,6 @@
     <t>DocumentReference.relatesTo.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>DocumentReference.relatesTo.extension</t>
   </si>
   <si>
@@ -1025,15 +1127,14 @@
     <t>relatesTo</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.relatesTo|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.relatesTo}
 </t>
   </si>
   <si>
     <t>Cross-version extension for DocumentReference.relatesTo from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `DocumentReference.relatesTo` has is mapped to FHIR R4 element `DocumentReference.relatesTo`, but has no comparisons.
-Element `DocumentReference.relatesTo` has a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
+    <t>Element `DocumentReference.relatesTo` has is mapped to FHIR R4 element `DocumentReference.relatesTo`, but has no comparisons.</t>
   </si>
   <si>
     <t>DocumentReference.relatesTo.modifierExtension</t>
@@ -1142,9 +1243,6 @@
     <t>Use of the Health Care Privacy/Security Classification (HCS) system of security-tag use is recommended.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
@@ -1193,7 +1291,7 @@
     <t>content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.content|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.content}
 </t>
   </si>
   <si>
@@ -1302,8 +1400,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DocumentReference.context` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `DocumentReference.context` has is mapped to FHIR R4 element `DocumentReference.context`, but has no comparisons.
-Element `DocumentReference.context` has a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
+Element `DocumentReference.context` has is mapped to FHIR R4 element `DocumentReference.context`, but has no comparisons.</t>
   </si>
   <si>
     <t>DocumentReference.context.modifierExtension</t>
@@ -1349,7 +1446,7 @@
     <t>This list of codes represents the main clinical acts being documented.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActCode|3.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActCode</t>
   </si>
   <si>
     <t>Composition.event.code</t>
@@ -1367,24 +1464,20 @@
     <t>DocumentReference.context.event.extension</t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
     <t>DocumentReference.context.event.extension:event</t>
   </si>
   <si>
     <t>event</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.event|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.event}
 </t>
   </si>
   <si>
     <t>Cross-version extension for DocumentReference.event from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `DocumentReference.event` has is mapped to FHIR R4 element `DocumentReference.context.event`, but has no comparisons.
-Element `DocumentReference.event` has a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
+    <t>Element `DocumentReference.event` has is mapped to FHIR R4 element `DocumentReference.context.event`, but has no comparisons.</t>
   </si>
   <si>
     <t>DocumentReference.context.event.coding</t>
@@ -1863,7 +1956,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ62"/>
+  <dimension ref="A1:AQ74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3280,13 +3373,11 @@
         <v>158</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="C12" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3299,24 +3390,26 @@
         <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>80</v>
       </c>
@@ -3364,7 +3457,7 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
@@ -3373,7 +3466,7 @@
         <v>82</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>144</v>
@@ -3385,7 +3478,7 @@
         <v>80</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>80</v>
@@ -3402,14 +3495,12 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="C13" t="s" s="2">
         <v>165</v>
       </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>80</v>
       </c>
@@ -3418,7 +3509,7 @@
         <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>80</v>
@@ -3427,7 +3518,7 @@
         <v>80</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>166</v>
@@ -3441,7 +3532,9 @@
       <c r="N13" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="O13" s="2"/>
+      <c r="O13" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P13" t="s" s="2">
         <v>80</v>
       </c>
@@ -3489,52 +3582,52 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="AQ13" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3547,26 +3640,22 @@
         <v>80</v>
       </c>
       <c r="I14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J14" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="J14" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K14" t="s" s="2">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>80</v>
       </c>
@@ -3614,7 +3703,7 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>81</v>
@@ -3626,36 +3715,36 @@
         <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="AQ14" t="s" s="2">
-        <v>80</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3663,7 +3752,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>93</v>
@@ -3672,26 +3761,24 @@
         <v>80</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>113</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>80</v>
       </c>
@@ -3715,13 +3802,13 @@
         <v>80</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>80</v>
@@ -3739,10 +3826,10 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>93</v>
@@ -3754,33 +3841,33 @@
         <v>105</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="AQ15" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3791,7 +3878,7 @@
         <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>80</v>
@@ -3803,15 +3890,17 @@
         <v>94</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>113</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>80</v>
@@ -3836,13 +3925,13 @@
         <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>80</v>
@@ -3860,13 +3949,13 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>80</v>
@@ -3875,33 +3964,33 @@
         <v>105</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>183</v>
+        <v>80</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO16" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AN16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>187</v>
-      </c>
       <c r="AP16" t="s" s="2">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="AQ16" t="s" s="2">
-        <v>195</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3909,7 +3998,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>93</v>
@@ -3918,23 +4007,21 @@
         <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>80</v>
@@ -3959,13 +4046,13 @@
         <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>202</v>
+        <v>80</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>80</v>
@@ -3983,10 +4070,10 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>93</v>
@@ -3995,36 +4082,36 @@
         <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>204</v>
+        <v>80</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c r="AQ17" t="s" s="2">
-        <v>207</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4035,7 +4122,7 @@
         <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>80</v>
@@ -4044,20 +4131,18 @@
         <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>209</v>
+        <v>139</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>80</v>
@@ -4082,61 +4167,59 @@
         <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="AC18" s="2"/>
       <c r="AD18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>214</v>
+        <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>215</v>
+        <v>80</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="AQ18" t="s" s="2">
         <v>80</v>
@@ -4144,12 +4227,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="D19" t="s" s="2">
         <v>80</v>
       </c>
@@ -4170,15 +4255,17 @@
         <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -4227,19 +4314,19 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>80</v>
@@ -4265,10 +4352,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4279,7 +4366,7 @@
         <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>80</v>
@@ -4291,13 +4378,13 @@
         <v>80</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>138</v>
+        <v>206</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>139</v>
+        <v>218</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>140</v>
+        <v>218</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4336,29 +4423,31 @@
         <v>80</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AC20" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>80</v>
@@ -4384,14 +4473,12 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
         <v>80</v>
       </c>
@@ -4409,19 +4496,19 @@
         <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4447,13 +4534,13 @@
         <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>80</v>
@@ -4471,59 +4558,59 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>80</v>
+        <v>229</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>80</v>
+        <v>231</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="AQ21" t="s" s="2">
-        <v>80</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>80</v>
+        <v>235</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>80</v>
@@ -4532,18 +4619,20 @@
         <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>80</v>
@@ -4568,13 +4657,13 @@
         <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>80</v>
@@ -4592,48 +4681,48 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AO22" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AG22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AP22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ22" t="s" s="2">
-        <v>80</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4656,17 +4745,15 @@
         <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>80</v>
@@ -4691,13 +4778,13 @@
         <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>237</v>
+        <v>80</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>80</v>
@@ -4715,7 +4802,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4730,44 +4817,44 @@
         <v>105</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="AQ23" t="s" s="2">
-        <v>245</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>247</v>
+        <v>80</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
@@ -4776,20 +4863,18 @@
         <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -4814,13 +4899,13 @@
         <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>251</v>
+        <v>80</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>252</v>
+        <v>80</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>253</v>
+        <v>80</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>80</v>
@@ -4838,48 +4923,48 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>254</v>
+        <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ24" t="s" s="2">
-        <v>257</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4890,7 +4975,7 @@
         <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
@@ -4899,16 +4984,16 @@
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>259</v>
+        <v>138</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>260</v>
+        <v>139</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>261</v>
+        <v>140</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4947,64 +5032,66 @@
         <v>80</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>80</v>
+        <v>262</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>258</v>
+        <v>211</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>262</v>
+        <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>263</v>
+        <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>264</v>
+        <v>80</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>266</v>
+        <v>80</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>267</v>
+        <v>80</v>
       </c>
       <c r="AQ25" t="s" s="2">
-        <v>268</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="D26" t="s" s="2">
-        <v>270</v>
+        <v>80</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5020,19 +5107,19 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5082,34 +5169,34 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>269</v>
+        <v>211</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>275</v>
+        <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>276</v>
+        <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>277</v>
+        <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>278</v>
+        <v>80</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>80</v>
@@ -5120,10 +5207,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5134,7 +5221,7 @@
         <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
@@ -5146,16 +5233,16 @@
         <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>280</v>
+        <v>206</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5205,48 +5292,48 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>80</v>
+        <v>274</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>284</v>
+        <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>285</v>
+        <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>286</v>
+        <v>136</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>287</v>
+        <v>80</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>288</v>
+        <v>80</v>
       </c>
       <c r="AQ27" t="s" s="2">
-        <v>289</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5266,19 +5353,19 @@
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>291</v>
+        <v>107</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5304,13 +5391,13 @@
         <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>80</v>
+        <v>279</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>80</v>
@@ -5328,7 +5415,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5343,33 +5430,33 @@
         <v>105</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>284</v>
+        <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>295</v>
+        <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>296</v>
+        <v>136</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>297</v>
+        <v>80</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>298</v>
+        <v>80</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>299</v>
+        <v>80</v>
       </c>
       <c r="AQ28" t="s" s="2">
-        <v>300</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5389,19 +5476,19 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>302</v>
+        <v>166</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5451,7 +5538,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -5466,13 +5553,13 @@
         <v>105</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>284</v>
+        <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>306</v>
+        <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
@@ -5489,10 +5576,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5503,7 +5590,7 @@
         <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>80</v>
@@ -5515,16 +5602,16 @@
         <v>94</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>309</v>
+        <v>206</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5574,13 +5661,13 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
@@ -5592,10 +5679,10 @@
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>313</v>
+        <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>314</v>
+        <v>136</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -5607,19 +5694,19 @@
         <v>80</v>
       </c>
       <c r="AQ30" t="s" s="2">
-        <v>315</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>80</v>
+        <v>295</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5635,18 +5722,20 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>218</v>
+        <v>296</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -5695,7 +5784,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>221</v>
+        <v>294</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -5707,22 +5796,22 @@
         <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>80</v>
+        <v>301</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>80</v>
+        <v>303</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>80</v>
@@ -5733,10 +5822,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5756,18 +5845,20 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>138</v>
+        <v>305</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>139</v>
+        <v>306</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -5804,17 +5895,19 @@
         <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AC32" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>223</v>
+        <v>304</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -5826,40 +5919,38 @@
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>80</v>
+        <v>309</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>80</v>
+        <v>311</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>80</v>
+        <v>312</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>80</v>
+        <v>313</v>
       </c>
       <c r="AQ32" t="s" s="2">
-        <v>80</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
         <v>80</v>
       </c>
@@ -5868,7 +5959,7 @@
         <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -5880,17 +5971,15 @@
         <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>323</v>
+        <v>206</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>324</v>
+        <v>258</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -5939,19 +6028,19 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
@@ -5960,7 +6049,7 @@
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -5977,14 +6066,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>327</v>
+        <v>80</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5997,26 +6086,22 @@
         <v>80</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>138</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>328</v>
+        <v>139</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>80</v>
       </c>
@@ -6052,19 +6137,19 @@
         <v>80</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>80</v>
+        <v>262</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>330</v>
+        <v>211</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -6085,7 +6170,7 @@
         <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -6102,18 +6187,20 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="D35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>93</v>
@@ -6125,19 +6212,19 @@
         <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>113</v>
+        <v>265</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6163,13 +6250,13 @@
         <v>80</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>335</v>
+        <v>80</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>336</v>
+        <v>80</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>80</v>
@@ -6187,28 +6274,28 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>331</v>
+        <v>211</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>337</v>
+        <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>338</v>
+        <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6220,15 +6307,15 @@
         <v>80</v>
       </c>
       <c r="AQ35" t="s" s="2">
-        <v>339</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6236,7 +6323,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>93</v>
@@ -6251,15 +6338,17 @@
         <v>94</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>341</v>
+        <v>206</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>342</v>
+        <v>270</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -6308,16 +6397,16 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>340</v>
+        <v>273</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>80</v>
+        <v>274</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>105</v>
@@ -6326,10 +6415,10 @@
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>344</v>
+        <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>345</v>
+        <v>136</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -6341,15 +6430,15 @@
         <v>80</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>346</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6372,20 +6461,18 @@
         <v>94</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>218</v>
+        <v>107</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>348</v>
+        <v>276</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>349</v>
+        <v>277</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6409,13 +6496,13 @@
         <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>80</v>
+        <v>279</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>80</v>
@@ -6433,7 +6520,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>347</v>
+        <v>282</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6454,7 +6541,7 @@
         <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>352</v>
+        <v>136</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
@@ -6463,18 +6550,18 @@
         <v>80</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>353</v>
+        <v>80</v>
       </c>
       <c r="AQ37" t="s" s="2">
-        <v>354</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6485,7 +6572,7 @@
         <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
@@ -6497,20 +6584,18 @@
         <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>233</v>
+        <v>166</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>356</v>
+        <v>284</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>357</v>
+        <v>285</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6534,13 +6619,13 @@
         <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>360</v>
+        <v>80</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>361</v>
+        <v>80</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>362</v>
+        <v>80</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>80</v>
@@ -6558,13 +6643,13 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>355</v>
+        <v>287</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>80</v>
@@ -6576,30 +6661,30 @@
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>363</v>
+        <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>364</v>
+        <v>288</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>365</v>
+        <v>80</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>366</v>
+        <v>80</v>
       </c>
       <c r="AQ38" t="s" s="2">
-        <v>367</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6607,10 +6692,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G39" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -6622,15 +6707,17 @@
         <v>94</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>309</v>
+        <v>206</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>369</v>
+        <v>290</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6679,13 +6766,13 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>368</v>
+        <v>293</v>
       </c>
       <c r="AG39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH39" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>80</v>
@@ -6697,10 +6784,10 @@
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>371</v>
+        <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>372</v>
+        <v>136</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6717,10 +6804,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>373</v>
+        <v>326</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>373</v>
+        <v>326</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6743,15 +6830,17 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>218</v>
+        <v>327</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6800,7 +6889,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>221</v>
+        <v>326</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6812,36 +6901,36 @@
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>80</v>
+        <v>309</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>80</v>
+        <v>331</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>80</v>
+        <v>333</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>80</v>
+        <v>334</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>80</v>
+        <v>335</v>
       </c>
       <c r="AQ40" t="s" s="2">
-        <v>80</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>374</v>
+        <v>337</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>374</v>
+        <v>337</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6849,11 +6938,11 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G41" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6864,15 +6953,17 @@
         <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>138</v>
+        <v>338</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>139</v>
+        <v>339</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -6909,38 +7000,40 @@
         <v>80</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AC41" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>223</v>
+        <v>337</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>80</v>
+        <v>309</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>80</v>
+        <v>342</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>80</v>
+        <v>343</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
@@ -6957,20 +7050,18 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>375</v>
+        <v>344</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>82</v>
@@ -6982,19 +7073,19 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>378</v>
+        <v>346</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7044,7 +7135,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>223</v>
+        <v>344</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -7053,19 +7144,19 @@
         <v>82</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>80</v>
+        <v>349</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -7077,51 +7168,47 @@
         <v>80</v>
       </c>
       <c r="AQ42" t="s" s="2">
-        <v>80</v>
+        <v>351</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>327</v>
+        <v>80</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>138</v>
+        <v>206</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>328</v>
+        <v>258</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>80</v>
       </c>
@@ -7169,19 +7256,19 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>330</v>
+        <v>209</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>80</v>
@@ -7190,7 +7277,7 @@
         <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>136</v>
+        <v>260</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -7207,10 +7294,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7218,10 +7305,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
@@ -7230,16 +7317,16 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>383</v>
+        <v>138</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>384</v>
+        <v>139</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>385</v>
+        <v>140</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7278,62 +7365,62 @@
         <v>80</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="AC44" s="2"/>
       <c r="AD44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>382</v>
+        <v>211</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>386</v>
+        <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>372</v>
+        <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>387</v>
+        <v>80</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>388</v>
+        <v>80</v>
       </c>
       <c r="AQ44" t="s" s="2">
-        <v>389</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>390</v>
+        <v>354</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="D45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7342,7 +7429,7 @@
         <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
@@ -7351,19 +7438,19 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>392</v>
+        <v>357</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>393</v>
+        <v>347</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7389,13 +7476,13 @@
         <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>395</v>
+        <v>80</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>396</v>
+        <v>80</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
@@ -7413,31 +7500,31 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>390</v>
+        <v>211</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>397</v>
+        <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>372</v>
+        <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>398</v>
+        <v>80</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>80</v>
@@ -7446,49 +7533,51 @@
         <v>80</v>
       </c>
       <c r="AQ45" t="s" s="2">
-        <v>399</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>400</v>
+        <v>359</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>400</v>
+        <v>359</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>309</v>
+        <v>138</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7536,19 +7625,19 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>400</v>
+        <v>363</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>80</v>
@@ -7557,7 +7646,7 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>404</v>
+        <v>136</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -7574,10 +7663,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>405</v>
+        <v>364</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>405</v>
+        <v>364</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7585,7 +7674,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>93</v>
@@ -7597,18 +7686,20 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>218</v>
+        <v>113</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>317</v>
+        <v>365</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7633,13 +7724,13 @@
         <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>80</v>
+        <v>368</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>80</v>
+        <v>369</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>80</v>
@@ -7657,10 +7748,10 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>221</v>
+        <v>364</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>93</v>
@@ -7669,16 +7760,16 @@
         <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>80</v>
+        <v>370</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>319</v>
+        <v>371</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7690,15 +7781,15 @@
         <v>80</v>
       </c>
       <c r="AQ47" t="s" s="2">
-        <v>80</v>
+        <v>372</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7706,10 +7797,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
@@ -7718,16 +7809,16 @@
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>138</v>
+        <v>374</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>139</v>
+        <v>375</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>140</v>
+        <v>376</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7766,38 +7857,40 @@
         <v>80</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AC48" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>223</v>
+        <v>373</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>80</v>
+        <v>377</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>80</v>
+        <v>378</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
@@ -7809,19 +7902,17 @@
         <v>80</v>
       </c>
       <c r="AQ48" t="s" s="2">
-        <v>80</v>
+        <v>379</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>407</v>
+        <v>380</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>408</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7830,7 +7921,7 @@
         <v>81</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -7839,21 +7930,23 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>409</v>
+        <v>381</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="O49" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7901,19 +7994,19 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>223</v>
+        <v>380</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>80</v>
@@ -7922,7 +8015,7 @@
         <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>80</v>
+        <v>385</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
@@ -7931,22 +8024,22 @@
         <v>80</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>80</v>
+        <v>386</v>
       </c>
       <c r="AQ49" t="s" s="2">
-        <v>80</v>
+        <v>387</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>327</v>
+        <v>80</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7959,25 +8052,25 @@
         <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>138</v>
+        <v>221</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>328</v>
+        <v>389</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>329</v>
+        <v>390</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>174</v>
+        <v>391</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>175</v>
+        <v>392</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -8002,13 +8095,13 @@
         <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>80</v>
+        <v>279</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>80</v>
+        <v>394</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>80</v>
@@ -8026,7 +8119,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>330</v>
+        <v>388</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8038,36 +8131,36 @@
         <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>80</v>
+        <v>395</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>136</v>
+        <v>396</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>80</v>
+        <v>397</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>80</v>
+        <v>398</v>
       </c>
       <c r="AQ50" t="s" s="2">
-        <v>80</v>
+        <v>399</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8075,7 +8168,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>82</v>
@@ -8087,16 +8180,16 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>414</v>
+        <v>345</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8147,10 +8240,10 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>82</v>
@@ -8162,19 +8255,19 @@
         <v>105</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>417</v>
+        <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>420</v>
+        <v>80</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>80</v>
@@ -8185,10 +8278,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8199,7 +8292,7 @@
         <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -8211,17 +8304,15 @@
         <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>422</v>
+        <v>258</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -8246,13 +8337,13 @@
         <v>80</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>251</v>
+        <v>80</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>425</v>
+        <v>80</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>426</v>
+        <v>80</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>80</v>
@@ -8270,28 +8361,28 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>421</v>
+        <v>209</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>427</v>
+        <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>428</v>
+        <v>260</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>80</v>
@@ -8303,15 +8394,15 @@
         <v>80</v>
       </c>
       <c r="AQ52" t="s" s="2">
-        <v>429</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8319,10 +8410,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
@@ -8334,13 +8425,13 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>218</v>
+        <v>138</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>317</v>
+        <v>139</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>318</v>
+        <v>140</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8379,31 +8470,29 @@
         <v>80</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="AC53" s="2"/>
       <c r="AD53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
@@ -8412,7 +8501,7 @@
         <v>80</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>319</v>
+        <v>80</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>80</v>
@@ -8429,18 +8518,20 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="D54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>82</v>
@@ -8455,15 +8546,17 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>138</v>
+        <v>409</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>139</v>
+        <v>410</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>80</v>
@@ -8500,19 +8593,19 @@
         <v>80</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>432</v>
+        <v>80</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8521,7 +8614,7 @@
         <v>82</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>144</v>
@@ -8550,16 +8643,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8572,24 +8663,26 @@
         <v>80</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>435</v>
+        <v>138</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>436</v>
+        <v>361</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>423</v>
+        <v>362</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="O55" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8637,7 +8730,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>223</v>
+        <v>363</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8658,7 +8751,7 @@
         <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
@@ -8675,10 +8768,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8686,10 +8779,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>80</v>
@@ -8701,20 +8794,16 @@
         <v>94</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>439</v>
+        <v>416</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>442</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8762,13 +8851,13 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>443</v>
+        <v>414</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>80</v>
@@ -8780,30 +8869,30 @@
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>80</v>
+        <v>418</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>444</v>
+        <v>404</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>80</v>
+        <v>419</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="AQ56" t="s" s="2">
-        <v>80</v>
+        <v>421</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8826,20 +8915,18 @@
         <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>218</v>
+        <v>423</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>450</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>80</v>
       </c>
@@ -8863,13 +8950,13 @@
         <v>80</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>80</v>
+        <v>427</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>80</v>
+        <v>428</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>80</v>
@@ -8887,7 +8974,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>451</v>
+        <v>422</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -8905,30 +8992,30 @@
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>80</v>
+        <v>429</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>452</v>
+        <v>404</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>80</v>
+        <v>430</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>453</v>
+        <v>80</v>
       </c>
       <c r="AQ57" t="s" s="2">
-        <v>80</v>
+        <v>431</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>454</v>
+        <v>432</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>454</v>
+        <v>432</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8951,15 +9038,17 @@
         <v>94</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>455</v>
+        <v>345</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -9008,7 +9097,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>454</v>
+        <v>432</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9026,13 +9115,13 @@
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>458</v>
+        <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>460</v>
+        <v>80</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>80</v>
@@ -9041,15 +9130,15 @@
         <v>80</v>
       </c>
       <c r="AQ58" t="s" s="2">
-        <v>461</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9072,13 +9161,13 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>463</v>
+        <v>258</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>464</v>
+        <v>259</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9105,13 +9194,13 @@
         <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>251</v>
+        <v>80</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>465</v>
+        <v>80</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>466</v>
+        <v>80</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
@@ -9129,7 +9218,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>462</v>
+        <v>209</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9141,19 +9230,19 @@
         <v>80</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>467</v>
+        <v>80</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>468</v>
+        <v>260</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>469</v>
+        <v>80</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>80</v>
@@ -9162,15 +9251,15 @@
         <v>80</v>
       </c>
       <c r="AQ59" t="s" s="2">
-        <v>470</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>471</v>
+        <v>438</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>471</v>
+        <v>438</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9181,7 +9270,7 @@
         <v>81</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -9193,20 +9282,16 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>233</v>
+        <v>138</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>472</v>
+        <v>139</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>80</v>
       </c>
@@ -9230,55 +9315,53 @@
         <v>80</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>251</v>
+        <v>80</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>476</v>
+        <v>80</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>477</v>
+        <v>80</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="AC60" s="2"/>
       <c r="AD60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>471</v>
+        <v>211</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>467</v>
+        <v>80</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>468</v>
+        <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>467</v>
+        <v>80</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>80</v>
@@ -9287,17 +9370,19 @@
         <v>80</v>
       </c>
       <c r="AQ60" t="s" s="2">
-        <v>478</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>479</v>
+        <v>439</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="D61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9306,7 +9391,7 @@
         <v>81</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -9318,15 +9403,17 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>480</v>
+        <v>265</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>481</v>
+        <v>441</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -9375,31 +9462,31 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>479</v>
+        <v>211</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>263</v>
+        <v>80</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>264</v>
+        <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>80</v>
@@ -9408,19 +9495,19 @@
         <v>80</v>
       </c>
       <c r="AQ61" t="s" s="2">
-        <v>483</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>484</v>
+        <v>444</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>484</v>
+        <v>444</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9433,24 +9520,26 @@
         <v>80</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>485</v>
+        <v>138</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>486</v>
+        <v>361</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>487</v>
+        <v>362</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9498,7 +9587,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>484</v>
+        <v>363</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9510,28 +9599,1500 @@
         <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ62" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AK62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL62" t="s" s="2">
+      <c r="AK63" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AP63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ63" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ64" t="s" s="2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ65" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ66" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="D67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ67" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP68" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AQ68" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="P69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP69" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AQ69" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="AM62" t="s" s="2">
+      <c r="AM70" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="AN62" t="s" s="2">
+      <c r="AN70" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="AO62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ62" t="s" s="2">
+      <c r="AO70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ70" t="s" s="2">
         <v>492</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ71" t="s" s="2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="P72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ72" t="s" s="2">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ73" t="s" s="2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ74" t="s" s="2">
+        <v>523</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-profile-DocumentReference.xlsx
+++ b/StructureDefinition-profile-DocumentReference.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2916" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="478">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.7894384-06:00</t>
+    <t>2026-02-21T13:36:54.2054456-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/DocumentReference</t>
+    <t>http://hl7.org/fhir/StructureDefinition/DocumentReference|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -470,7 +470,7 @@
     <t>version</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.version}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.version|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -494,7 +494,7 @@
     <t>attester</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.attester}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.attester|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -681,14 +681,14 @@
     <t>docStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.docStatus}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.docStatus|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for DocumentReference.docStatus from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `DocumentReference.docStatus` has is mapped to FHIR R4 element `DocumentReference.docStatus`, but has no comparisons.</t>
+    <t>Element `DocumentReference.docStatus` is mapped to FHIR R4 element `DocumentReference.docStatus` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>DocumentReference.docStatus.value</t>
@@ -815,125 +815,6 @@
     <t>DocumentEntry.patientId</t>
   </si>
   <si>
-    <t>DocumentReference.subject.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>DocumentReference.subject.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>DocumentReference.subject.extension:subject</t>
-  </si>
-  <si>
-    <t>subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for DocumentReference.subject from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Resource in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DocumentReference.subject` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `DocumentReference.subject` has is mapped to FHIR R4 element `DocumentReference.subject`, but has no comparisons.
-Element `DocumentReference.subject` has is mapped to FHIR R4 element `Media.subject`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>DocumentReference.subject.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>DocumentReference.subject.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>DocumentReference.subject.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>DocumentReference.subject.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
     <t>DocumentReference.date</t>
   </si>
   <si>
@@ -1000,40 +881,6 @@
     <t>DocumentEntry.author</t>
   </si>
   <si>
-    <t>DocumentReference.author.id</t>
-  </si>
-  <si>
-    <t>DocumentReference.author.extension</t>
-  </si>
-  <si>
-    <t>DocumentReference.author.extension:author</t>
-  </si>
-  <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t>Cross-version extension for DocumentReference.author from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CareTeam in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DocumentReference.author` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `DocumentReference.author` has is mapped to FHIR R4 element `DocumentReference.author`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>DocumentReference.author.reference</t>
-  </si>
-  <si>
-    <t>DocumentReference.author.type</t>
-  </si>
-  <si>
-    <t>DocumentReference.author.identifier</t>
-  </si>
-  <si>
-    <t>DocumentReference.author.display</t>
-  </si>
-  <si>
     <t>DocumentReference.authenticator</t>
   </si>
   <si>
@@ -1118,6 +965,15 @@
     <t>DocumentReference.relatesTo.id</t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>DocumentReference.relatesTo.extension</t>
   </si>
   <si>
@@ -1127,14 +983,14 @@
     <t>relatesTo</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.relatesTo}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.relatesTo|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for DocumentReference.relatesTo from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `DocumentReference.relatesTo` has is mapped to FHIR R4 element `DocumentReference.relatesTo`, but has no comparisons.</t>
+    <t>Element `DocumentReference.relatesTo` is mapped to FHIR R4 element `DocumentReference.relatesTo` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>DocumentReference.relatesTo.modifierExtension</t>
@@ -1243,6 +1099,9 @@
     <t>Use of the Health Care Privacy/Security Classification (HCS) system of security-tag use is recommended.</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
@@ -1285,24 +1144,24 @@
     <t>DocumentReference.content.extension</t>
   </si>
   <si>
-    <t>DocumentReference.content.extension:content</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.content}
+    <t>DocumentReference.content.extension:profile</t>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.content.profile|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for DocumentReference.content from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The document and format referenced.  If there are multiple content element repetitions, these must all represent the same document in different format, or attachment metadata.</t>
-  </si>
-  <si>
-    <t>Element `DocumentReference.content` has is mapped to FHIR R4 element `DocumentReference.content`, but has no comparisons.
-Element `DocumentReference.content` has is mapped to FHIR R4 element `Media.content`, but has no comparisons.</t>
+    <t>Cross-version extension for DocumentReference.content.profile from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An identifier of the document constraints, encoding, structure, and template that the document conforms to beyond the base format indicated in the mimeType.</t>
+  </si>
+  <si>
+    <t>Element `DocumentReference.content.profile` has a context of DocumentReference.content based on following the parent source element upwards and mapping to `DocumentReference`.
+Element `DocumentReference.content.profile` has a context of Media.content based on following the parent source element upwards and mapping to `Media`.</t>
   </si>
   <si>
     <t>DocumentReference.content.modifierExtension</t>
@@ -1387,20 +1246,10 @@
     <t>DocumentReference.context.extension</t>
   </si>
   <si>
-    <t>DocumentReference.context.extension:context</t>
-  </si>
-  <si>
-    <t>context</t>
-  </si>
-  <si>
-    <t>Cross-version extension for DocumentReference.context from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Appointment,http://hl7.org/fhir/StructureDefinition/Encounter,http://hl7.org/fhir/StructureDefinition/EpisodeOfCare in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DocumentReference.context` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `DocumentReference.context` has is mapped to FHIR R4 element `DocumentReference.context`, but has no comparisons.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>DocumentReference.context.modifierExtension</t>
@@ -1446,7 +1295,7 @@
     <t>This list of codes represents the main clinical acts being documented.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActCode</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActCode|3.0.0</t>
   </si>
   <si>
     <t>Composition.event.code</t>
@@ -1464,20 +1313,23 @@
     <t>DocumentReference.context.event.extension</t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>DocumentReference.context.event.extension:event</t>
   </si>
   <si>
     <t>event</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.event}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.event|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for DocumentReference.event from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `DocumentReference.event` has is mapped to FHIR R4 element `DocumentReference.context.event`, but has no comparisons.</t>
+    <t>Element `DocumentReference.event` is mapped to FHIR R4 element `DocumentReference.context.event` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>DocumentReference.context.event.coding</t>
@@ -1956,7 +1808,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ74"/>
+  <dimension ref="A1:AQ59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4847,7 +4699,7 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>80</v>
+        <v>258</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4863,18 +4715,20 @@
         <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>206</v>
+        <v>259</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -4923,7 +4777,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>209</v>
+        <v>257</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4935,22 +4789,22 @@
         <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>80</v>
+        <v>263</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>80</v>
+        <v>266</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>80</v>
@@ -4961,10 +4815,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4984,18 +4838,20 @@
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>138</v>
+        <v>268</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>139</v>
+        <v>269</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -5032,19 +4888,19 @@
         <v>80</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>262</v>
+        <v>80</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>211</v>
+        <v>267</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -5056,40 +4912,38 @@
         <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>80</v>
+        <v>273</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>80</v>
+        <v>274</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>80</v>
+        <v>275</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>80</v>
+        <v>276</v>
       </c>
       <c r="AQ25" t="s" s="2">
-        <v>80</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
         <v>80</v>
       </c>
@@ -5110,16 +4964,16 @@
         <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5169,48 +5023,48 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>211</v>
+        <v>278</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>80</v>
+        <v>283</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>80</v>
+        <v>284</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>80</v>
+        <v>285</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>80</v>
+        <v>286</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>80</v>
+        <v>287</v>
       </c>
       <c r="AQ26" t="s" s="2">
-        <v>80</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5230,19 +5084,19 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>206</v>
+        <v>290</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5292,7 +5146,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5301,19 +5155,19 @@
         <v>93</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>80</v>
+        <v>294</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>136</v>
+        <v>295</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
@@ -5330,10 +5184,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5344,7 +5198,7 @@
         <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
@@ -5356,16 +5210,16 @@
         <v>94</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>107</v>
+        <v>297</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5391,13 +5245,13 @@
         <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>279</v>
+        <v>80</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>281</v>
+        <v>80</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>80</v>
@@ -5415,13 +5269,13 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>80</v>
@@ -5433,10 +5287,10 @@
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>80</v>
+        <v>301</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>136</v>
+        <v>302</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
@@ -5448,15 +5302,15 @@
         <v>80</v>
       </c>
       <c r="AQ28" t="s" s="2">
-        <v>80</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5476,20 +5330,18 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>80</v>
@@ -5538,7 +5390,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>287</v>
+        <v>209</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -5550,7 +5402,7 @@
         <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>80</v>
@@ -5559,7 +5411,7 @@
         <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
@@ -5576,10 +5428,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5590,7 +5442,7 @@
         <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>80</v>
@@ -5599,20 +5451,18 @@
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>206</v>
+        <v>138</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>290</v>
+        <v>139</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -5649,31 +5499,29 @@
         <v>80</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="AC30" s="2"/>
       <c r="AD30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>293</v>
+        <v>211</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
@@ -5682,7 +5530,7 @@
         <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -5699,21 +5547,23 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="D31" t="s" s="2">
-        <v>295</v>
+        <v>80</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -5722,19 +5572,19 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5784,34 +5634,34 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>294</v>
+        <v>211</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>301</v>
+        <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>302</v>
+        <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>303</v>
+        <v>80</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>80</v>
@@ -5822,14 +5672,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5842,24 +5692,26 @@
         <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>305</v>
+        <v>138</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5907,7 +5759,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -5919,36 +5771,36 @@
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>309</v>
+        <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>311</v>
+        <v>136</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>312</v>
+        <v>80</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>313</v>
+        <v>80</v>
       </c>
       <c r="AQ32" t="s" s="2">
-        <v>314</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5956,7 +5808,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>93</v>
@@ -5968,18 +5820,20 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>206</v>
+        <v>113</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>258</v>
+        <v>320</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -6004,13 +5858,13 @@
         <v>80</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>80</v>
+        <v>323</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>80</v>
+        <v>324</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>80</v>
@@ -6028,10 +5882,10 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>209</v>
+        <v>319</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>93</v>
@@ -6040,16 +5894,16 @@
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>260</v>
+        <v>326</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -6061,15 +5915,15 @@
         <v>80</v>
       </c>
       <c r="AQ33" t="s" s="2">
-        <v>80</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6077,10 +5931,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>80</v>
@@ -6089,16 +5943,16 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>138</v>
+        <v>329</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>139</v>
+        <v>330</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>140</v>
+        <v>331</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6137,40 +5991,40 @@
         <v>80</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>262</v>
+        <v>80</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>211</v>
+        <v>328</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>80</v>
+        <v>332</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>80</v>
+        <v>333</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -6182,19 +6036,17 @@
         <v>80</v>
       </c>
       <c r="AQ34" t="s" s="2">
-        <v>80</v>
+        <v>334</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
         <v>80</v>
       </c>
@@ -6212,21 +6064,23 @@
         <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>265</v>
+        <v>206</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
       </c>
@@ -6274,19 +6128,19 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>211</v>
+        <v>335</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
@@ -6295,7 +6149,7 @@
         <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6304,18 +6158,18 @@
         <v>80</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>80</v>
+        <v>341</v>
       </c>
       <c r="AQ35" t="s" s="2">
-        <v>80</v>
+        <v>342</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6326,7 +6180,7 @@
         <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
@@ -6338,18 +6192,20 @@
         <v>94</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>270</v>
+        <v>344</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>271</v>
+        <v>345</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6373,13 +6229,13 @@
         <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>80</v>
+        <v>349</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>80</v>
@@ -6397,16 +6253,16 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>273</v>
+        <v>343</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>105</v>
@@ -6415,30 +6271,30 @@
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>80</v>
+        <v>351</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>136</v>
+        <v>352</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>80</v>
+        <v>353</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>80</v>
+        <v>354</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>80</v>
+        <v>355</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6446,10 +6302,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
@@ -6461,17 +6317,15 @@
         <v>94</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>107</v>
+        <v>297</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>276</v>
+        <v>357</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6496,13 +6350,13 @@
         <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>279</v>
+        <v>80</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>281</v>
+        <v>80</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>80</v>
@@ -6520,13 +6374,13 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>282</v>
+        <v>356</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>80</v>
@@ -6538,10 +6392,10 @@
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>80</v>
+        <v>359</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>136</v>
+        <v>360</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
@@ -6558,10 +6412,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6581,20 +6435,18 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6643,7 +6495,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>287</v>
+        <v>209</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6655,7 +6507,7 @@
         <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
@@ -6664,7 +6516,7 @@
         <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -6681,10 +6533,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6695,7 +6547,7 @@
         <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -6704,20 +6556,18 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>206</v>
+        <v>138</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>290</v>
+        <v>139</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6754,31 +6604,29 @@
         <v>80</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="AC39" s="2"/>
       <c r="AD39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>293</v>
+        <v>211</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>80</v>
@@ -6787,7 +6635,7 @@
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6804,12 +6652,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="D40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6818,7 +6668,7 @@
         <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
@@ -6830,16 +6680,16 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6889,82 +6739,84 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>326</v>
+        <v>211</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>309</v>
+        <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>331</v>
+        <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>332</v>
+        <v>80</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>333</v>
+        <v>80</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>334</v>
+        <v>80</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>335</v>
+        <v>80</v>
       </c>
       <c r="AQ40" t="s" s="2">
-        <v>336</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>338</v>
+        <v>138</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
       </c>
@@ -7012,28 +6864,28 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>309</v>
+        <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>342</v>
+        <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>343</v>
+        <v>136</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
@@ -7050,10 +6902,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7061,10 +6913,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
@@ -7076,17 +6928,15 @@
         <v>94</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>345</v>
+        <v>371</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>80</v>
@@ -7135,13 +6985,13 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>80</v>
@@ -7153,30 +7003,30 @@
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>80</v>
+        <v>375</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="AQ42" t="s" s="2">
-        <v>351</v>
+        <v>377</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7196,18 +7046,20 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>206</v>
+        <v>379</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>258</v>
+        <v>380</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>80</v>
@@ -7232,13 +7084,13 @@
         <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>80</v>
+        <v>383</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>80</v>
+        <v>384</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>80</v>
@@ -7256,7 +7108,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>209</v>
+        <v>378</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7268,19 +7120,19 @@
         <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>80</v>
+        <v>385</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>260</v>
+        <v>360</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>80</v>
+        <v>386</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>80</v>
@@ -7289,15 +7141,15 @@
         <v>80</v>
       </c>
       <c r="AQ43" t="s" s="2">
-        <v>80</v>
+        <v>387</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7308,7 +7160,7 @@
         <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
@@ -7317,18 +7169,20 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>138</v>
+        <v>297</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>139</v>
+        <v>389</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>80</v>
@@ -7365,29 +7219,31 @@
         <v>80</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AC44" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>211</v>
+        <v>388</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
@@ -7396,7 +7252,7 @@
         <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>80</v>
+        <v>392</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7413,14 +7269,12 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7429,7 +7283,7 @@
         <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
@@ -7441,17 +7295,15 @@
         <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>356</v>
+        <v>206</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>357</v>
+        <v>305</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -7500,19 +7352,19 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
@@ -7521,7 +7373,7 @@
         <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>80</v>
+        <v>307</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -7538,14 +7390,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>360</v>
+        <v>159</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7558,26 +7410,24 @@
         <v>80</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>138</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>361</v>
+        <v>395</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>362</v>
+        <v>396</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="O46" t="s" s="2">
-        <v>163</v>
-      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7625,7 +7475,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>363</v>
+        <v>211</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7646,7 +7496,7 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>136</v>
+        <v>307</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -7663,44 +7513,46 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>365</v>
+        <v>316</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>366</v>
+        <v>317</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7724,13 +7576,13 @@
         <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>188</v>
+        <v>80</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>368</v>
+        <v>80</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>369</v>
+        <v>80</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>80</v>
@@ -7748,28 +7600,28 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>364</v>
+        <v>318</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>370</v>
+        <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>371</v>
+        <v>136</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7781,15 +7633,15 @@
         <v>80</v>
       </c>
       <c r="AQ47" t="s" s="2">
-        <v>372</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7797,10 +7649,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
@@ -7809,16 +7661,16 @@
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7869,13 +7721,13 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>80</v>
@@ -7884,33 +7736,33 @@
         <v>105</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>80</v>
+        <v>402</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>377</v>
+        <v>403</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>378</v>
+        <v>404</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>80</v>
+        <v>405</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ48" t="s" s="2">
-        <v>379</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7921,7 +7773,7 @@
         <v>81</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -7930,23 +7782,21 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7970,13 +7820,13 @@
         <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>80</v>
+        <v>410</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>80</v>
+        <v>411</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>80</v>
@@ -7994,13 +7844,13 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>80</v>
@@ -8012,10 +7862,10 @@
         <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>80</v>
+        <v>412</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>385</v>
+        <v>413</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
@@ -8024,18 +7874,18 @@
         <v>80</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>386</v>
+        <v>80</v>
       </c>
       <c r="AQ49" t="s" s="2">
-        <v>387</v>
+        <v>414</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8046,7 +7896,7 @@
         <v>81</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
@@ -8055,23 +7905,19 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>389</v>
+        <v>305</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>80</v>
       </c>
@@ -8095,13 +7941,13 @@
         <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>279</v>
+        <v>80</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>393</v>
+        <v>80</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>394</v>
+        <v>80</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>80</v>
@@ -8119,48 +7965,48 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>395</v>
+        <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>396</v>
+        <v>307</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>397</v>
+        <v>80</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>398</v>
+        <v>80</v>
       </c>
       <c r="AQ50" t="s" s="2">
-        <v>399</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8168,7 +8014,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>82</v>
@@ -8180,16 +8026,16 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>345</v>
+        <v>138</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>401</v>
+        <v>139</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>402</v>
+        <v>140</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8228,22 +8074,22 @@
         <v>80</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>80</v>
+        <v>417</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>400</v>
+        <v>211</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>82</v>
@@ -8252,16 +8098,16 @@
         <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>403</v>
+        <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>404</v>
+        <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
@@ -8278,12 +8124,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="C52" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="D52" t="s" s="2">
         <v>80</v>
       </c>
@@ -8292,7 +8140,7 @@
         <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -8304,15 +8152,17 @@
         <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>206</v>
+        <v>420</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>258</v>
+        <v>421</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -8361,19 +8211,19 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>80</v>
@@ -8382,7 +8232,7 @@
         <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>80</v>
@@ -8399,10 +8249,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8410,7 +8260,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>82</v>
@@ -8422,19 +8272,23 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>138</v>
+        <v>379</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>139</v>
+        <v>424</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>80</v>
       </c>
@@ -8470,17 +8324,19 @@
         <v>80</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AC53" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>211</v>
+        <v>428</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8492,7 +8348,7 @@
         <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
@@ -8501,7 +8357,7 @@
         <v>80</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>80</v>
+        <v>429</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>80</v>
@@ -8510,7 +8366,7 @@
         <v>80</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>80</v>
+        <v>430</v>
       </c>
       <c r="AQ53" t="s" s="2">
         <v>80</v>
@@ -8518,24 +8374,22 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>408</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G54" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="H54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8543,21 +8397,23 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>409</v>
+        <v>206</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>410</v>
+        <v>432</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8605,19 +8461,19 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>211</v>
+        <v>436</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
@@ -8626,7 +8482,7 @@
         <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>80</v>
+        <v>437</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
@@ -8635,7 +8491,7 @@
         <v>80</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>80</v>
+        <v>438</v>
       </c>
       <c r="AQ54" t="s" s="2">
         <v>80</v>
@@ -8643,46 +8499,42 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>360</v>
+        <v>80</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>138</v>
+        <v>440</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>361</v>
+        <v>441</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8730,31 +8582,31 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>363</v>
+        <v>439</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>80</v>
+        <v>443</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>136</v>
+        <v>444</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>80</v>
+        <v>445</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>80</v>
@@ -8763,15 +8615,15 @@
         <v>80</v>
       </c>
       <c r="AQ55" t="s" s="2">
-        <v>80</v>
+        <v>446</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>414</v>
+        <v>447</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>414</v>
+        <v>447</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8779,7 +8631,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>93</v>
@@ -8791,16 +8643,16 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>415</v>
+        <v>221</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>416</v>
+        <v>448</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>417</v>
+        <v>449</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8827,13 +8679,13 @@
         <v>80</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>80</v>
+        <v>451</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>80</v>
@@ -8851,10 +8703,10 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>414</v>
+        <v>447</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>93</v>
@@ -8869,30 +8721,30 @@
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>418</v>
+        <v>452</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>419</v>
+        <v>454</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>420</v>
+        <v>80</v>
       </c>
       <c r="AQ56" t="s" s="2">
-        <v>421</v>
+        <v>455</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>422</v>
+        <v>456</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>422</v>
+        <v>456</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8912,21 +8764,23 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>423</v>
+        <v>221</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>424</v>
+        <v>457</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>425</v>
+        <v>458</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>459</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
       </c>
@@ -8950,13 +8804,13 @@
         <v>80</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>117</v>
+        <v>239</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>428</v>
+        <v>462</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>80</v>
@@ -8974,7 +8828,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>422</v>
+        <v>456</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -8992,13 +8846,13 @@
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>429</v>
+        <v>452</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>430</v>
+        <v>452</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>80</v>
@@ -9007,15 +8861,15 @@
         <v>80</v>
       </c>
       <c r="AQ57" t="s" s="2">
-        <v>431</v>
+        <v>463</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>432</v>
+        <v>464</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>432</v>
+        <v>464</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9035,20 +8889,18 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>345</v>
+        <v>465</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>433</v>
+        <v>466</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -9097,7 +8949,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>432</v>
+        <v>464</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9115,13 +8967,13 @@
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>436</v>
+        <v>252</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>80</v>
+        <v>253</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>80</v>
@@ -9130,15 +8982,15 @@
         <v>80</v>
       </c>
       <c r="AQ58" t="s" s="2">
-        <v>80</v>
+        <v>468</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>437</v>
+        <v>469</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>437</v>
+        <v>469</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9149,7 +9001,7 @@
         <v>81</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
@@ -9161,15 +9013,17 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>206</v>
+        <v>470</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>258</v>
+        <v>471</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -9218,31 +9072,31 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>209</v>
+        <v>469</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>80</v>
+        <v>474</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>260</v>
+        <v>475</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>80</v>
+        <v>476</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>80</v>
@@ -9251,1848 +9105,7 @@
         <v>80</v>
       </c>
       <c r="AQ59" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AC60" s="2"/>
-      <c r="AD60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ60" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="D61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="O61" s="2"/>
-      <c r="P61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ61" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="P62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ62" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AP63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ63" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="O64" s="2"/>
-      <c r="P64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ64" t="s" s="2">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ65" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ66" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="D67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="O67" s="2"/>
-      <c r="P67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ67" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="P68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP68" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AQ68" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="P69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP69" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AQ69" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ70" t="s" s="2">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ71" t="s" s="2">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="P72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ72" t="s" s="2">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ73" t="s" s="2">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="O74" s="2"/>
-      <c r="P74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ74" t="s" s="2">
-        <v>523</v>
       </c>
     </row>
   </sheetData>
